--- a/data/raw/comptages_terrain/debarquements/us_med_pnmcca_observatoire_comptage_terrain_debarquements_2020-08-13.xlsx
+++ b/data/raw/comptages_terrain/debarquements/us_med_pnmcca_observatoire_comptage_terrain_debarquements_2020-08-13.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180"/>
+    <workbookView windowWidth="27945" windowHeight="13395" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="metadata_comptages" sheetId="28" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="40">
   <si>
     <t>Secteur</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Taxi beach</t>
   </si>
   <si>
-    <t>Taxi baot (popeye /saleccia)</t>
+    <t>Taxi boat (popeye/saleccia)</t>
   </si>
   <si>
     <t>Taxi plage</t>
@@ -91,7 +91,7 @@
     <t>Malfalcu (Jaune et noir)</t>
   </si>
   <si>
-    <t>Autres Sociétés</t>
+    <t>Autres sociétés</t>
   </si>
   <si>
     <t>Isula
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>U Saleccia</t>
-  </si>
-  <si>
-    <t>Taxi baot (popeye/saleccia)</t>
   </si>
   <si>
     <t>1  intention de débarquer au ponton</t>
@@ -1339,8 +1336,8 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1405,7 +1402,7 @@
   <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3738,8 +3735,8 @@
   <sheetPr/>
   <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
@@ -3818,7 +3815,7 @@
     <row r="4" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
@@ -3833,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -3911,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4073,7 +4070,7 @@
     <row r="17" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -4203,7 +4200,7 @@
         <v>4</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4326,7 +4323,7 @@
     <row r="30" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
@@ -4456,7 +4453,7 @@
         <v>5</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
@@ -4578,7 +4575,7 @@
     <row r="43" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A43" s="3"/>
       <c r="B43" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C43" s="5">
         <v>1</v>
@@ -4708,7 +4705,7 @@
         <v>5</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -4830,7 +4827,7 @@
     <row r="56" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A56" s="3"/>
       <c r="B56" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
@@ -4959,7 +4956,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -5082,7 +5079,7 @@
     <row r="69" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A69" s="3"/>
       <c r="B69" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
@@ -5212,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -5334,7 +5331,7 @@
     <row r="82" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A82" s="3"/>
       <c r="B82" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C82" s="5">
         <v>0</v>
@@ -5464,7 +5461,7 @@
         <v>6</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -5586,7 +5583,7 @@
     <row r="95" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
       <c r="A95" s="3"/>
       <c r="B95" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C95" s="5">
         <v>0</v>
@@ -5715,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
@@ -5837,7 +5834,7 @@
     <row r="108" ht="42" customHeight="1" spans="1:7">
       <c r="A108" s="3"/>
       <c r="B108" s="7" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C108" s="5">
         <v>0</v>
